--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.5_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2842114739936654</v>
+        <v>0.3288543311365225</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.28421147399366536, 'ngram_match_score': 0.08371667737982462, 'weighted_ngram_match_score': 0.10532702079263905, 'syntax_match_score': 0.554945054945055, 'dataflow_match_score': 0.39285714285714285}</t>
+          <t>{'codebleu': 0.3288543311365225, 'ngram_match_score': 0.08371667737982462, 'weighted_ngram_match_score': 0.10532702079263905, 'syntax_match_score': 0.554945054945055, 'dataflow_match_score': 0.5714285714285714}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.5_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3288543311365225</v>
+        <v>0.3050448073269987</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3288543311365225, 'ngram_match_score': 0.08371667737982462, 'weighted_ngram_match_score': 0.10532702079263905, 'syntax_match_score': 0.554945054945055, 'dataflow_match_score': 0.5714285714285714}</t>
+          <t>{'codebleu': 0.3050448073269987, 'ngram_match_score': 0.08371667737982462, 'weighted_ngram_match_score': 0.10532702079263905, 'syntax_match_score': 0.554945054945055, 'dataflow_match_score': 0.47619047619047616}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
